--- a/src/test/java/testdata/TestData.xlsx
+++ b/src/test/java/testdata/TestData.xlsx
@@ -48,7 +48,7 @@
     <t>Yucca Elephantipes</t>
   </si>
   <si>
-    <t>pater@gmail.com</t>
+    <t>pateeri@gmail.com</t>
   </si>
   <si>
     <t>I-phone</t>
@@ -558,7 +558,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="pater@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="pateeri@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>

--- a/src/test/java/testdata/TestData.xlsx
+++ b/src/test/java/testdata/TestData.xlsx
@@ -48,7 +48,7 @@
     <t>Yucca Elephantipes</t>
   </si>
   <si>
-    <t>pateeri@gmail.com</t>
+    <t>piiii@gmail.com</t>
   </si>
   <si>
     <t>I-phone</t>
@@ -558,7 +558,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="pateeri@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="piiii@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>

--- a/src/test/java/testdata/TestData.xlsx
+++ b/src/test/java/testdata/TestData.xlsx
@@ -48,7 +48,7 @@
     <t>Yucca Elephantipes</t>
   </si>
   <si>
-    <t>piiii@gmail.com</t>
+    <t>pitanana@gmail.com</t>
   </si>
   <si>
     <t>I-phone</t>
@@ -526,7 +526,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.424285714285714" defaultRowHeight="14.4"/>
@@ -558,7 +558,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="piiii@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="pitanana@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
